--- a/Reshuffle/mapping/mapping tables.xlsx
+++ b/Reshuffle/mapping/mapping tables.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t xml:space="preserve">Program</t>
   </si>
@@ -87,21 +87,24 @@
     <t xml:space="preserve">11+1</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Columns</t>
+    <t xml:space="preserve">Required Source Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renamed Columns</t>
   </si>
   <si>
     <t xml:space="preserve">Data Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Additional Columns</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final Columns</t>
   </si>
   <si>
     <t xml:space="preserve">Code 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Code1</t>
+  </si>
+  <si>
     <t xml:space="preserve">str</t>
   </si>
   <si>
@@ -111,85 +114,121 @@
     <t xml:space="preserve">Code 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Code2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
     <t xml:space="preserve">Column2</t>
   </si>
   <si>
-    <t xml:space="preserve">Code1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code 3</t>
+    <t xml:space="preserve">ProgramName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar</t>
   </si>
   <si>
     <t xml:space="preserve">Column3</t>
   </si>
   <si>
-    <t xml:space="preserve">Code2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProgramName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar_</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apr_</t>
   </si>
   <si>
+    <t xml:space="preserve">Apr</t>
+  </si>
+  <si>
     <t xml:space="preserve">May_</t>
   </si>
   <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jun_</t>
   </si>
   <si>
+    <t xml:space="preserve">Jun</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jul_</t>
   </si>
   <si>
+    <t xml:space="preserve">Jul</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aug_</t>
   </si>
   <si>
+    <t xml:space="preserve">Aug</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sep_</t>
   </si>
   <si>
+    <t xml:space="preserve">Sep</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oct_</t>
   </si>
   <si>
+    <t xml:space="preserve">Oct</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nov_</t>
   </si>
   <si>
+    <t xml:space="preserve">Nov</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dec_</t>
   </si>
   <si>
+    <t xml:space="preserve">Dec</t>
+  </si>
+  <si>
     <t xml:space="preserve">Result_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
   </si>
 </sst>
 </file>
@@ -199,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -228,13 +267,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,7 +324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,6 +337,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,6 +354,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -304,10 +425,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.19"/>
@@ -364,10 +485,10 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -492,112 +613,124 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>26</v>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>7</v>
@@ -605,20 +738,26 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="0" t="s">
@@ -626,104 +765,140 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>42</v>
       </c>
     </row>
